--- a/processing/outputs/pnd_bycategories.xlsx
+++ b/processing/outputs/pnd_bycategories.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl.sharepoint.com/teams/GCIMSWater191/Shared Documents/1.4b Groundwater/2022_Niazi_PeakandDecline/Hassan/Analysis_Figures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pnnl.sharepoint.com/teams/GCIMSWater191/Shared Documents/1.4b Groundwater/2022_Niazi_PeakandDecline/OpenScience/niazi-etal_202X_xyz/processing/outputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="441" documentId="11_30D86FB0F5146B1FED35917B42D5CDCC5A8E7CAD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FDA57F45-7519-4E4B-A1D5-0864D6A4B242}"/>
   <bookViews>
-    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-118" yWindow="-118" windowWidth="25370" windowHeight="13759" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pnd_byregion" sheetId="4" r:id="rId1"/>
@@ -7718,8 +7718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:J232"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -14028,7 +14028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q901"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -56242,7 +56242,7 @@
         <v>15923.6189152879</v>
       </c>
       <c r="L898" s="3">
-        <f t="shared" ref="L898:L961" si="42">K898*100/SUM($K$2:$K$901)</f>
+        <f t="shared" ref="L898:L901" si="42">K898*100/SUM($K$2:$K$901)</f>
         <v>0.19250483360563125</v>
       </c>
       <c r="M898" s="9">
@@ -56440,8 +56440,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F276B032807940BB20B70CBE2BDDED" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="15cc6bb97404ea8f909955dbb2c459fc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f873923d-3d3c-43be-b29d-3dacbbf0dd48" xmlns:ns3="6b49dfce-d97f-4f9a-8310-2f666b546187" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6600dfaad29e9defbf03e9e1d4f0a617" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b49dfce-d97f-4f9a-8310-2f666b546187">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="f873923d-3d3c-43be-b29d-3dacbbf0dd48" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005F276B032807940BB20B70CBE2BDDED" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5d79a4c88e6339a6f37e87421a6efc80">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f873923d-3d3c-43be-b29d-3dacbbf0dd48" xmlns:ns3="6b49dfce-d97f-4f9a-8310-2f666b546187" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="26c7f4167dd8f550d99c080b2ca507fa" ns2:_="" ns3:_="">
     <xsd:import namespace="f873923d-3d3c-43be-b29d-3dacbbf0dd48"/>
     <xsd:import namespace="6b49dfce-d97f-4f9a-8310-2f666b546187"/>
     <xsd:element name="properties">
@@ -56460,6 +56480,7 @@
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -56546,6 +56567,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceDateTaken" ma:index="18" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="19" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
@@ -56650,41 +56676,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6b49dfce-d97f-4f9a-8310-2f666b546187">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="f873923d-3d3c-43be-b29d-3dacbbf0dd48" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C49E9233-C7C7-4845-974E-0682F6A6DFBF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C118E9-DF72-47B2-9F83-64783DE8EE67}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6b49dfce-d97f-4f9a-8310-2f666b546187"/>
     <ds:schemaRef ds:uri="f873923d-3d3c-43be-b29d-3dacbbf0dd48"/>
-    <ds:schemaRef ds:uri="6b49dfce-d97f-4f9a-8310-2f666b546187"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -56698,12 +56696,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1C118E9-DF72-47B2-9F83-64783DE8EE67}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6b49dfce-d97f-4f9a-8310-2f666b546187"/>
-    <ds:schemaRef ds:uri="f873923d-3d3c-43be-b29d-3dacbbf0dd48"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B3FE69-5824-459F-AEE1-727C830B5721}"/>
 </file>